--- a/simplefly/bigtest/results_5.xlsx
+++ b/simplefly/bigtest/results_5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahuang/Documents/Boulder/spring '20/independent study/fireflies/simplefly/bigtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD0C21F-BAB4-9E47-A09A-A850E7C8B901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A2241-80C1-FB44-A827-F377123DDB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
   <si>
     <t>('commonsub_og', 0)</t>
   </si>
@@ -572,13 +572,22 @@
   </si>
   <si>
     <t>('[1, 0, 0, 0, 1, 0, 0, 0, 0, 0]', 4)</t>
+  </si>
+  <si>
+    <t>how many unique sequences are here</t>
+  </si>
+  <si>
+    <t>is subset?</t>
+  </si>
+  <si>
+    <t>principal component analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,8 +722,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +908,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1055,9 +1077,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1412,11 +1436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,7 +1455,7 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
@@ -1481,7 +1505,7 @@
       <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
@@ -1511,7 +1535,7 @@
       <c r="L2" t="s">
         <v>121</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
@@ -1531,10 +1555,10 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -1558,7 +1582,7 @@
       <c r="K3" t="s">
         <v>148</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
@@ -1631,7 +1655,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1640,7 +1664,7 @@
       <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
@@ -1655,7 +1679,7 @@
       <c r="J5" t="s">
         <v>115</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
@@ -1737,7 +1761,7 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1861,7 +1885,7 @@
       <c r="L9" t="s">
         <v>144</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N9" t="s">
@@ -1893,7 +1917,7 @@
       <c r="E10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G10">
@@ -1905,7 +1929,7 @@
       <c r="J10" t="s">
         <v>151</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
@@ -1937,7 +1961,7 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2217,7 +2241,7 @@
       <c r="N16" t="s">
         <v>104</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P16">
@@ -2284,7 +2308,7 @@
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
@@ -2293,7 +2317,7 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G18">
@@ -2381,7 +2405,7 @@
       <c r="A20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
@@ -2425,6 +2449,27 @@
       </c>
       <c r="Q20">
         <v>6.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>2^10</f>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/simplefly/bigtest/results_5.xlsx
+++ b/simplefly/bigtest/results_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahuang/Documents/Boulder/spring '20/independent study/fireflies/simplefly/bigtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A2241-80C1-FB44-A827-F377123DDB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934BF40-67EB-004A-A98B-4F961C9D23BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
   <si>
     <t>('commonsub_og', 0)</t>
   </si>
@@ -382,18 +382,12 @@
     <t>('commonsub_two', 4)</t>
   </si>
   <si>
-    <t>('[1, 0, 0, 1, 1, 0, 0, 1, 0, 0]', 0)</t>
-  </si>
-  <si>
     <t>('[1, 1, 0, 0, 0, 0, 0, 0, 0, 0]', 1)</t>
   </si>
   <si>
     <t>('[1, 1, 0, 1, 0, 1, 1, 0, 0, 0]', 3)</t>
   </si>
   <si>
-    <t>('[1, 0, 1, 1, 0, 1, 0, 1, 1, 0]', 4)</t>
-  </si>
-  <si>
     <t>('commonsub_two', 5)</t>
   </si>
   <si>
@@ -574,13 +568,13 @@
     <t>('[1, 0, 0, 0, 1, 0, 0, 0, 0, 0]', 4)</t>
   </si>
   <si>
-    <t>how many unique sequences are here</t>
-  </si>
-  <si>
-    <t>is subset?</t>
-  </si>
-  <si>
-    <t>principal component analysis</t>
+    <t>('[1, 1, 0, 0, 1, 0, 0, 1, 0, 0]', 0)</t>
+  </si>
+  <si>
+    <t>('[1, 1, 1, 1, 1, 0, 1, 1, 1, 0]', 4)</t>
+  </si>
+  <si>
+    <t>('[1, 1, 0, 1, 0, 1, 1, 0, 1, 0]', 4)</t>
   </si>
 </sst>
 </file>
@@ -730,7 +724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +907,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,11 +1077,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1437,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1453,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1476,7 +1477,7 @@
       <c r="H1">
         <v>6.6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K1" t="s">
@@ -1492,7 +1493,7 @@
         <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="P1">
         <v>24</v>
@@ -1502,7 +1503,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1526,23 +1527,23 @@
       <c r="H2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" t="s">
         <v>120</v>
-      </c>
-      <c r="L2" t="s">
-        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="P2">
         <v>25.7</v>
@@ -1576,20 +1577,20 @@
       <c r="H3">
         <v>5.8</v>
       </c>
-      <c r="J3" t="s">
-        <v>147</v>
+      <c r="J3" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O3" t="s">
         <v>101</v>
@@ -1627,19 +1628,19 @@
         <v>4.7</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O4" t="s">
         <v>77</v>
@@ -1655,7 +1656,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1664,7 +1665,7 @@
       <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
@@ -1727,10 +1728,10 @@
         <v>6.4</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -1739,10 +1740,10 @@
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P6">
         <v>26.8</v>
@@ -1777,10 +1778,10 @@
         <v>4.3</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
         <v>54</v>
@@ -1789,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P7">
         <v>27.4</v>
@@ -1802,7 +1803,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B8" t="s">
@@ -1827,13 +1828,13 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
         <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>75</v>
@@ -1842,7 +1843,7 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P8">
         <v>28.1</v>
@@ -1877,22 +1878,22 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" t="s">
         <v>142</v>
-      </c>
-      <c r="K9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" t="s">
-        <v>144</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P9">
         <v>30.8</v>
@@ -1927,22 +1928,22 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P10">
         <v>32.1</v>
@@ -1977,22 +1978,22 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
         <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P11">
         <v>34.4</v>
@@ -2027,22 +2028,22 @@
         <v>5.9</v>
       </c>
       <c r="J12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" t="s">
         <v>168</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>169</v>
       </c>
-      <c r="L12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M12" t="s">
-        <v>171</v>
-      </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P12">
         <v>36.5</v>
@@ -2127,19 +2128,19 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s">
         <v>176</v>
-      </c>
-      <c r="K14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" t="s">
-        <v>178</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O14" t="s">
         <v>37</v>
@@ -2177,19 +2178,19 @@
         <v>5.3</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
         <v>77</v>
@@ -2277,22 +2278,22 @@
         <v>5.8</v>
       </c>
       <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s">
         <v>133</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>134</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>135</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>136</v>
-      </c>
-      <c r="N17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O17" t="s">
-        <v>138</v>
       </c>
       <c r="P17">
         <v>45.1</v>
@@ -2327,22 +2328,22 @@
         <v>6.4</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
       </c>
       <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
         <v>159</v>
-      </c>
-      <c r="M18" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" t="s">
-        <v>160</v>
-      </c>
-      <c r="O18" t="s">
-        <v>161</v>
       </c>
       <c r="P18">
         <v>46.7</v>
@@ -2377,10 +2378,10 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
@@ -2389,10 +2390,10 @@
         <v>103</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P19">
         <v>48.6</v>
@@ -2427,49 +2428,28 @@
         <v>7.1</v>
       </c>
       <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
         <v>162</v>
       </c>
-      <c r="K20" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" t="s">
-        <v>164</v>
-      </c>
       <c r="M20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N20" t="s">
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P20">
         <v>56.8</v>
       </c>
       <c r="Q20">
         <v>6.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <f>2^10</f>
-        <v>1024</v>
       </c>
     </row>
   </sheetData>
